--- a/medicine/Mort/Nécropole_nationale_de_Cerny-en-Laonnois/Nécropole_nationale_de_Cerny-en-Laonnois.xlsx
+++ b/medicine/Mort/Nécropole_nationale_de_Cerny-en-Laonnois/Nécropole_nationale_de_Cerny-en-Laonnois.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>N%C3%A9cropole_nationale_de_Cerny-en-Laonnois</t>
+          <t>Nécropole_nationale_de_Cerny-en-Laonnois</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La nécropole nationale Cerny-en-Laonnois[1],[2] est un cimetière de guerre français de la Première Guerre mondiale situé sur le territoire de la commune de Cerny-en-Laonnois dans le département français de l'Aisne. Le cimetière se situe à proximité du mémorial du Chemin des Dames.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La nécropole nationale Cerny-en-Laonnois, est un cimetière de guerre français de la Première Guerre mondiale situé sur le territoire de la commune de Cerny-en-Laonnois dans le département français de l'Aisne. Le cimetière se situe à proximité du mémorial du Chemin des Dames.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>N%C3%A9cropole_nationale_de_Cerny-en-Laonnois</t>
+          <t>Nécropole_nationale_de_Cerny-en-Laonnois</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La nécropole de Cerny-en-Laonnois a été érigée au cours de la Première Guerre mondiale afin de recueillir les corps des combattants tués lors des batailles du Chemin des Dames.
 Aménagée de 1919 à 1925 pour recevoir les corps exhumés des cimetières des communes de Beaulne,  Paissy,  Braye-en-Laonnois,  Moulins tombés lors des combats des plateaux de Vauclerc de Vendresse et de Troyon ; la nécropole a été rénovée en 1972.
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>N%C3%A9cropole_nationale_de_Cerny-en-Laonnois</t>
+          <t>Nécropole_nationale_de_Cerny-en-Laonnois</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,9 +557,11 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le cimetière militaire de 13 515 m2 abrite 5 204 corps de soldats, 5 150 français dont 2 386 corps en ossuaires. Parmi eux se trouvent les corps de 54 soldats russes[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cimetière militaire de 13 515 m2 abrite 5 204 corps de soldats, 5 150 français dont 2 386 corps en ossuaires. Parmi eux se trouvent les corps de 54 soldats russes.
 </t>
         </is>
       </c>
